--- a/문서/CharString.xlsx
+++ b/문서/CharString.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7E8877-8AF3-412E-8A5B-AEFCAFC294F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD08A199-B6EB-4B11-9EFA-CB17CFB0B63C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{61D34DDC-3A2B-4BF9-AD5A-E67C6195C870}"/>
   </bookViews>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>체력이 약하기에 전방에서 공격을 받아내는 능력은 부족합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,6 +68,14 @@
   </si>
   <si>
     <t>궁수는 다재다능한 능력을 가지고 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string_second</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string_first</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,114 +443,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF5581F-5FA9-410F-9AAB-57880325949A}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.125" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.125" customWidth="1"/>
+    <col min="4" max="4" width="72.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>90001</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>90002</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>90001</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>90002</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+        <v>90003</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>90002</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>90003</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>90003</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
